--- a/SPRINT2/Planilha Backlog.xlsx
+++ b/SPRINT2/Planilha Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Bandtec\TECCHICKEN-SPRINT2\SPRINT2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosec\OneDrive\Documentos\Arquivos PI\Grupo 10\TECCHICKEN\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824A7B75-9DDE-485B-81CF-A95090A8D058}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F55C1A-C46C-421F-BA5F-DC8E2BBF8849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -182,6 +173,9 @@
   </si>
   <si>
     <t>Site Estático Cadastro e Login - Local</t>
+  </si>
+  <si>
+    <t>Script do Banco de Dados</t>
   </si>
 </sst>
 </file>
@@ -666,7 +660,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +888,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" s="13">
         <v>5</v>
@@ -912,7 +906,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" s="13">
         <v>6</v>
@@ -980,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E18" s="7">
         <v>8</v>
@@ -993,11 +987,11 @@
       <c r="B19" s="13">
         <v>8</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>47</v>
+      <c r="C19" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E19" s="7">
         <v>9</v>
@@ -1011,23 +1005,31 @@
         <v>9</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E20" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="13">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7">
+        <v>13</v>
+      </c>
+      <c r="E21" s="7">
+        <v>7</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>

--- a/SPRINT2/Planilha Backlog.xlsx
+++ b/SPRINT2/Planilha Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Bandtec\TECCHICKEN-SPRINT2\SPRINT2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/luiz_nardi_bandtec_com_br/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824A7B75-9DDE-485B-81CF-A95090A8D058}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{A38407E2-4268-4FC3-8038-34C4DFBFCAE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{21DD54D2-0C09-486B-88AA-E30167914EF2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -130,12 +130,6 @@
     <t>Prototipação do Site</t>
   </si>
   <si>
-    <t>Requisito</t>
-  </si>
-  <si>
-    <t>Ordem/Execução</t>
-  </si>
-  <si>
     <t>Backlog 2° Sprint</t>
   </si>
   <si>
@@ -148,18 +142,12 @@
     <t>Ferramenta de gestão de projeto</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>Diagrama de solução</t>
   </si>
   <si>
     <t>Documento de justificativa do projeto</t>
   </si>
   <si>
-    <t>2° Sprint</t>
-  </si>
-  <si>
     <t>Script BD</t>
   </si>
   <si>
@@ -182,6 +170,12 @@
   </si>
   <si>
     <t>Site Estático Cadastro e Login - Local</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Ordem de Execução</t>
   </si>
 </sst>
 </file>
@@ -211,18 +205,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -280,73 +268,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,473 +638,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFE211-9289-4CE5-BEDB-9EB311B8F419}">
-  <dimension ref="B1:I38"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="D6" s="4">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3">
         <v>18</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="7">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="7" t="s">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7" t="s">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="D24" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7" t="s">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="D25" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="8">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="D26" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="7" t="s">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="D27" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="13">
-        <v>5</v>
-      </c>
-      <c r="E12" s="13">
-        <v>3</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="13">
-        <v>13</v>
-      </c>
-      <c r="E14" s="13">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="13">
-        <v>3</v>
-      </c>
-      <c r="E15" s="13">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="7">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
-        <v>7</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="7">
-        <v>15</v>
-      </c>
-      <c r="E18" s="7">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
-        <v>8</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
-        <v>9</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="7">
-        <v>14</v>
-      </c>
-      <c r="E20" s="7">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33" s="14"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F34" s="12"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="4"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:H7">
-    <sortCondition ref="G7"/>
-  </sortState>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1140,202 +1049,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1739E6-F50A-4DFF-AA31-A876B2C2E512}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <v>21</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>16</v>
       </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>18</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>21</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>8</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>16</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>21</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>13</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>10</v>
       </c>
     </row>

--- a/SPRINT2/Planilha Backlog.xlsx
+++ b/SPRINT2/Planilha Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/luiz_nardi_bandtec_com_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\TECCHICKEN\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{A38407E2-4268-4FC3-8038-34C4DFBFCAE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{21DD54D2-0C09-486B-88AA-E30167914EF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F4366-4475-4FF2-B7AD-F1421C615BD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Ordem de Execução</t>
+  </si>
+  <si>
+    <t>Planilha de Riscos</t>
   </si>
 </sst>
 </file>
@@ -318,10 +321,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFE211-9289-4CE5-BEDB-9EB311B8F419}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,10 +659,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
@@ -934,11 +937,21 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1"/>
@@ -1049,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1739E6-F50A-4DFF-AA31-A876B2C2E512}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
@@ -1071,7 +1084,7 @@
       <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="14" t="s">

--- a/SPRINT2/Planilha Backlog.xlsx
+++ b/SPRINT2/Planilha Backlog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\TECCHICKEN\SPRINT2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 3/TECCHICKEN-DOCUMENTACAO/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F4366-4475-4FF2-B7AD-F1421C615BD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{2D4F4366-4475-4FF2-B7AD-F1421C615BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E8F28F-11A0-40FA-B868-EC9E5A36EB6C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Requisitos" sheetId="2" r:id="rId2"/>
+    <sheet name="Product Backlog" sheetId="3" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId2"/>
+    <sheet name="Requisitos" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -179,6 +180,27 @@
   </si>
   <si>
     <t>Planilha de Riscos</t>
+  </si>
+  <si>
+    <t>Documentação</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da API</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>Nuvem</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Arduíno/Sensor (simulador)</t>
   </si>
 </sst>
 </file>
@@ -208,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -267,11 +295,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,9 +397,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,13 +422,185 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -342,6 +611,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94912DBF-8CC3-48CC-AA78-BCF5F2E3FC3A}" name="Tabela3" displayName="Tabela3" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{94912DBF-8CC3-48CC-AA78-BCF5F2E3FC3A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E77574A5-EA91-47C9-A47B-D048AF493534}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{0D7C1A5A-B811-439A-86FC-8F8E612129CD}" name="Requisitos"/>
+    <tableColumn id="3" xr3:uid="{9DEB1C06-1848-4621-B3C9-6DD10D853B41}" name="Tamanho"/>
+    <tableColumn id="4" xr3:uid="{8C6F7CF4-5118-48A5-AC1F-3C0FF269CD3A}" name="Ordem de Execução"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD04FE12-824F-4F35-84C0-D755E422C462}" name="Tabela2" displayName="Tabela2" ref="B2:F19" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7E8AE91F-6B94-4572-B2C8-99E2BD645D54}" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FC7518A0-1AD6-468E-992C-47CC3022333D}" name="Requisitos"/>
+    <tableColumn id="3" xr3:uid="{D6E45C21-4863-40C2-BCFC-0EC4BA16E0DE}" name="Tamanho" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BB463502-3145-4DB6-B84E-42F29CC5AB92}" name="Ordem de Execução" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{20485B11-2A81-4338-AD53-E3131C57B67A}" name="Sprint" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,52 +938,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFE211-9289-4CE5-BEDB-9EB311B8F419}">
-  <dimension ref="B1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C835CB-4CB2-4CE5-B9CE-9428FBDBE8C4}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f>G2+G1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>G3+G2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f>G4+G3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f>G5+G4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f>G6+G5</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFE211-9289-4CE5-BEDB-9EB311B8F419}">
+  <dimension ref="B1:K38"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="3">
@@ -694,15 +1157,15 @@
       <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="3">
@@ -711,15 +1174,15 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3">
@@ -728,15 +1191,15 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="4">
@@ -745,15 +1208,15 @@
       <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="3">
@@ -762,15 +1225,15 @@
       <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="3">
@@ -779,274 +1242,278 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
         <v>13</v>
       </c>
-      <c r="E11" s="9">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9</v>
+      </c>
+      <c r="F17" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="24">
+        <v>14</v>
+      </c>
+      <c r="E18" s="24">
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="F18" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>16</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="24">
+        <v>13</v>
+      </c>
+      <c r="E19" s="24">
         <v>10</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>19</v>
-      </c>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>27</v>
-      </c>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>21</v>
-      </c>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>22</v>
-      </c>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>25</v>
-      </c>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="2"/>
     </row>
   </sheetData>
@@ -1055,47 +1522,48 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1739E6-F50A-4DFF-AA31-A876B2C2E512}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1108,11 +1576,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1125,11 +1593,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1142,11 +1610,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1159,11 +1627,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1176,11 +1644,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1193,11 +1661,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1210,11 +1678,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1227,11 +1695,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1244,11 +1712,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">

--- a/SPRINT2/Planilha Backlog.xlsx
+++ b/SPRINT2/Planilha Backlog.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 3/TECCHICKEN-DOCUMENTACAO/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{2D4F4366-4475-4FF2-B7AD-F1421C615BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E8F28F-11A0-40FA-B868-EC9E5A36EB6C}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="13_ncr:1_{2D4F4366-4475-4FF2-B7AD-F1421C615BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C0131E-BE9D-4583-944E-122CD663FA51}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="3" r:id="rId1"/>
-    <sheet name="Backlog" sheetId="1" r:id="rId2"/>
-    <sheet name="Requisitos" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint Backlog" sheetId="4" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId3"/>
+    <sheet name="Requisitos" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -201,13 +202,136 @@
   </si>
   <si>
     <t>Arduíno/Sensor (simulador)</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Projeto criado e configurado no GitHub</t>
+  </si>
+  <si>
+    <t>Documento de contexto de negócio</t>
+  </si>
+  <si>
+    <t>Desenho de solução</t>
+  </si>
+  <si>
+    <t>Protótipo do site institucional</t>
+  </si>
+  <si>
+    <t>Tela de simulador financeiro</t>
+  </si>
+  <si>
+    <t>Tabelas criadas no MySQL</t>
+  </si>
+  <si>
+    <t>Execução de script de inserção de registros</t>
+  </si>
+  <si>
+    <t>Execução de script de consulta de dados</t>
+  </si>
+  <si>
+    <t>Preparar arduíno/simulador</t>
+  </si>
+  <si>
+    <t>Escolher e testar o sensor no simulador</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Planilha de riscos do projeto</t>
+  </si>
+  <si>
+    <t>Site estático institucional</t>
+  </si>
+  <si>
+    <t>Site estático dashboard</t>
+  </si>
+  <si>
+    <t>Site estático cadastro e login</t>
+  </si>
+  <si>
+    <t>Ferramenta de gestão de projeto funcionando</t>
+  </si>
+  <si>
+    <t>HLD do projeto / LLD do projeto</t>
+  </si>
+  <si>
+    <t>Planilha de requisitos / backlog do projeto</t>
+  </si>
+  <si>
+    <t>Planilha de Backlog / Planilha de Sprints</t>
+  </si>
+  <si>
+    <t>Modelagem lógica do projeto</t>
+  </si>
+  <si>
+    <t>Script de criação do banco</t>
+  </si>
+  <si>
+    <t>Teste com sensor / Gráficos</t>
+  </si>
+  <si>
+    <t>Especificação do Analytics / Métricas</t>
+  </si>
+  <si>
+    <t>Manual de instalação</t>
+  </si>
+  <si>
+    <t>Documento final do projeto</t>
+  </si>
+  <si>
+    <t>PPT da apresentação do projeto</t>
+  </si>
+  <si>
+    <t>Prévia (demonstração da solução + apresentação)</t>
+  </si>
+  <si>
+    <t>Site institucional na Nuvem</t>
+  </si>
+  <si>
+    <t>Cadastro, login e dashboard na Nuvem, conectado com BD</t>
+  </si>
+  <si>
+    <t>Mapeamento das tabelas em classes Javascript</t>
+  </si>
+  <si>
+    <t>Fluxograma do processo de atendimento do suporte</t>
+  </si>
+  <si>
+    <t>Ferramenta de Help Desk configurada e integrada à solução</t>
+  </si>
+  <si>
+    <t>Modelagem lógica (final)</t>
+  </si>
+  <si>
+    <t>Script de criação do banco (final)</t>
+  </si>
+  <si>
+    <t>Tabelas criadas no Azure (final)</t>
+  </si>
+  <si>
+    <t>Teste integrado do Analytics</t>
+  </si>
+  <si>
+    <t>Teste integrado da solução de IoT (simulador + BD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +353,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +381,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -367,11 +511,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,9 +589,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,12 +622,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -544,13 +775,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -560,6 +784,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -630,13 +861,47 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD04FE12-824F-4F35-84C0-D755E422C462}" name="Tabela2" displayName="Tabela2" ref="B2:F19" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95158068-8EBD-4465-A987-ECEB2A1FCD50}" name="Tabela32" displayName="Tabela32" ref="A42:E49" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A42:E49" xr:uid="{95158068-8EBD-4465-A987-ECEB2A1FCD50}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:D49">
+    <sortCondition ref="A42:A49"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7E8AE91F-6B94-4572-B2C8-99E2BD645D54}" name="ID" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{6FBF94FA-8FE0-48CD-8455-E0ED66571EF3}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{9FD65E2A-5B4F-46BD-A589-0D2836828284}" name="Requisitos"/>
+    <tableColumn id="3" xr3:uid="{7D9038E4-FE29-4EE1-84C7-4836E3F70155}" name="Tamanho"/>
+    <tableColumn id="4" xr3:uid="{74E0CF84-FA5B-4291-8F25-C638765B9190}" name="Ordem de Execução"/>
+    <tableColumn id="5" xr3:uid="{D4132406-DDC0-440E-A1A0-932AADCFF243}" name="Sprint" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B062C9D8-73C4-46EB-B059-DAA54D1E0B94}" name="Tabela325" displayName="Tabela325" ref="A1:E40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+  <autoFilter ref="A1:E40" xr:uid="{B062C9D8-73C4-46EB-B059-DAA54D1E0B94}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+    <sortCondition ref="A4294967288:A4294967295"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9A45F353-9CFD-4C78-BD5A-066735C2EA01}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0252D482-772B-45B3-9870-374B93399D35}" name="Requisitos" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C0557B63-625D-42FF-BE9E-D8D8CCD9F3C6}" name="Tamanho" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BF5CA4B4-063A-4630-B5E5-1FC6866EC54C}" name="Ordem de Execução" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E8965E4E-B682-4858-A350-988D1ECD5701}" name="Sprint" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD04FE12-824F-4F35-84C0-D755E422C462}" name="Tabela2" displayName="Tabela2" ref="B2:F19" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7E8AE91F-6B94-4572-B2C8-99E2BD645D54}" name="ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{FC7518A0-1AD6-468E-992C-47CC3022333D}" name="Requisitos"/>
-    <tableColumn id="3" xr3:uid="{D6E45C21-4863-40C2-BCFC-0EC4BA16E0DE}" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BB463502-3145-4DB6-B84E-42F29CC5AB92}" name="Ordem de Execução" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{20485B11-2A81-4338-AD53-E3131C57B67A}" name="Sprint" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D6E45C21-4863-40C2-BCFC-0EC4BA16E0DE}" name="Tamanho" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{BB463502-3145-4DB6-B84E-42F29CC5AB92}" name="Ordem de Execução" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{20485B11-2A81-4338-AD53-E3131C57B67A}" name="Sprint" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -939,22 +1204,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C835CB-4CB2-4CE5-B9CE-9428FBDBE8C4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,8 +1238,23 @@
       <c r="G1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -987,8 +1270,23 @@
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K2" s="30">
+        <v>1</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="31">
+        <v>21</v>
+      </c>
+      <c r="O2" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1005,8 +1303,23 @@
         <f>G2+G1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" s="32">
+        <v>2</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="33">
+        <v>16</v>
+      </c>
+      <c r="O3" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1023,8 +1336,23 @@
         <f>G3+G2</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4" s="30">
+        <v>3</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="31">
+        <v>18</v>
+      </c>
+      <c r="O4" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1041,8 +1369,23 @@
         <f>G4+G3</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="32">
+        <v>4</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="33">
+        <v>21</v>
+      </c>
+      <c r="O5" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1059,8 +1402,23 @@
         <f>G5+G4</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K6" s="30">
+        <v>5</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="31">
+        <v>8</v>
+      </c>
+      <c r="O6" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1077,8 +1435,23 @@
         <f>G6+G5</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K7" s="32">
+        <v>6</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="33">
+        <v>16</v>
+      </c>
+      <c r="O7" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1090,6 +1463,72 @@
       </c>
       <c r="D8">
         <v>2</v>
+      </c>
+      <c r="K8" s="30">
+        <v>7</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="31">
+        <v>21</v>
+      </c>
+      <c r="O8" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="32">
+        <v>8</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="33">
+        <v>8</v>
+      </c>
+      <c r="O9" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="30">
+        <v>9</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="31">
+        <v>13</v>
+      </c>
+      <c r="O10" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="32">
+        <v>10</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="33">
+        <v>3</v>
+      </c>
+      <c r="O11" s="33">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1101,6 +1540,833 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3685E5-F92C-42F0-8A9F-7AEF9F5411D3}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E49" sqref="A42:E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="37">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37">
+        <v>3</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="37">
+        <v>8</v>
+      </c>
+      <c r="D3" s="37">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="37">
+        <v>8</v>
+      </c>
+      <c r="D4" s="37">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="37">
+        <v>5</v>
+      </c>
+      <c r="D5" s="37">
+        <v>4</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="37">
+        <v>13</v>
+      </c>
+      <c r="D6" s="37">
+        <v>9</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="37">
+        <v>21</v>
+      </c>
+      <c r="D7" s="37">
+        <v>10</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="37">
+        <v>8</v>
+      </c>
+      <c r="D8" s="37">
+        <v>5</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="37">
+        <v>5</v>
+      </c>
+      <c r="D9" s="37">
+        <v>6</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="37">
+        <v>2</v>
+      </c>
+      <c r="D10" s="37">
+        <v>7</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="37">
+        <v>2</v>
+      </c>
+      <c r="D11" s="37">
+        <v>8</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="37">
+        <v>13</v>
+      </c>
+      <c r="D12" s="37">
+        <v>12</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="37">
+        <v>5</v>
+      </c>
+      <c r="D13" s="37">
+        <v>11</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="37">
+        <v>3</v>
+      </c>
+      <c r="D15" s="37">
+        <v>2</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="37">
+        <v>21</v>
+      </c>
+      <c r="D16" s="37">
+        <v>7</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="37">
+        <v>21</v>
+      </c>
+      <c r="D17" s="37">
+        <v>9</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="37">
+        <v>13</v>
+      </c>
+      <c r="D18" s="37">
+        <v>8</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="37">
+        <v>3</v>
+      </c>
+      <c r="D19" s="37">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="37">
+        <v>13</v>
+      </c>
+      <c r="D20" s="37">
+        <v>4</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="37">
+        <v>5</v>
+      </c>
+      <c r="D21" s="37">
+        <v>3</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="37">
+        <v>8</v>
+      </c>
+      <c r="D22" s="37">
+        <v>5</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="37">
+        <v>5</v>
+      </c>
+      <c r="D23" s="37">
+        <v>6</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
+        <v>22</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="37">
+        <v>13</v>
+      </c>
+      <c r="D24" s="37">
+        <v>11</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
+        <v>23</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="37">
+        <v>8</v>
+      </c>
+      <c r="D25" s="37">
+        <v>10</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
+        <v>24</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="37">
+        <v>3</v>
+      </c>
+      <c r="D27" s="37">
+        <v>12</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
+        <v>25</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="37">
+        <v>13</v>
+      </c>
+      <c r="D28" s="37">
+        <v>13</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="37">
+        <v>26</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="37">
+        <v>8</v>
+      </c>
+      <c r="D29" s="37">
+        <v>14</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
+        <v>27</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="37">
+        <v>8</v>
+      </c>
+      <c r="D30" s="37">
+        <v>11</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>28</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="37">
+        <v>21</v>
+      </c>
+      <c r="D31" s="37">
+        <v>8</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
+        <v>29</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="37">
+        <v>21</v>
+      </c>
+      <c r="D32" s="37">
+        <v>6</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
+        <v>30</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="37">
+        <v>8</v>
+      </c>
+      <c r="D33" s="37">
+        <v>7</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
+        <v>31</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="37">
+        <v>13</v>
+      </c>
+      <c r="D34" s="37">
+        <v>4</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
+        <v>32</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="37">
+        <v>5</v>
+      </c>
+      <c r="D35" s="37">
+        <v>5</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
+        <v>33</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="37">
+        <v>8</v>
+      </c>
+      <c r="D36" s="37">
+        <v>1</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
+        <v>35</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="37">
+        <v>3</v>
+      </c>
+      <c r="D38" s="37">
+        <v>2</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>36</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="37">
+        <v>8</v>
+      </c>
+      <c r="D39" s="37">
+        <v>9</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
+        <v>37</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="37">
+        <v>13</v>
+      </c>
+      <c r="D40" s="37">
+        <v>10</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFE211-9289-4CE5-BEDB-9EB311B8F419}">
   <dimension ref="B1:K38"/>
   <sheetViews>
@@ -1122,30 +2388,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1157,12 +2423,12 @@
       <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1174,12 +2440,12 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1191,12 +2457,12 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1208,12 +2474,12 @@
       <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1225,12 +2491,12 @@
       <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -1242,19 +2508,19 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1266,7 +2532,7 @@
       <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>2</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -1277,7 +2543,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1289,7 +2555,7 @@
       <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -1300,7 +2566,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1312,7 +2578,7 @@
       <c r="E12" s="3">
         <v>6</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -1323,7 +2589,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1335,7 +2601,7 @@
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1346,7 +2612,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1358,7 +2624,7 @@
       <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -1369,7 +2635,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1381,7 +2647,7 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -1392,7 +2658,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>13</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -1404,12 +2670,12 @@
       <c r="E16" s="3">
         <v>8</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>14</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1421,41 +2687,41 @@
       <c r="E17" s="3">
         <v>9</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>15</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>14</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>7</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>16</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>13</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>10</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>2</v>
       </c>
     </row>
@@ -1528,11 +2794,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1739E6-F50A-4DFF-AA31-A876B2C2E512}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/SPRINT2/Planilha Backlog.xlsx
+++ b/SPRINT2/Planilha Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 3/TECCHICKEN-DOCUMENTACAO/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="13_ncr:1_{2D4F4366-4475-4FF2-B7AD-F1421C615BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C0131E-BE9D-4583-944E-122CD663FA51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7B5D4B23-C96A-4D4B-BAE2-38923F007648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Requisitos" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -210,12 +211,6 @@
     <t>1, 2, 3</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Projeto criado e configurado no GitHub</t>
   </si>
   <si>
@@ -244,9 +239,6 @@
   </si>
   <si>
     <t>Escolher e testar o sensor no simulador</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Planilha de riscos do projeto</t>
@@ -539,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,9 +613,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -643,9 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -661,39 +647,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -831,6 +796,12 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -861,7 +832,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95158068-8EBD-4465-A987-ECEB2A1FCD50}" name="Tabela32" displayName="Tabela32" ref="A42:E49" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95158068-8EBD-4465-A987-ECEB2A1FCD50}" name="Tabela32" displayName="Tabela32" ref="A42:E49" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A42:E49" xr:uid="{95158068-8EBD-4465-A987-ECEB2A1FCD50}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:D49">
     <sortCondition ref="A42:A49"/>
@@ -878,30 +849,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B062C9D8-73C4-46EB-B059-DAA54D1E0B94}" name="Tabela325" displayName="Tabela325" ref="A1:E40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
-  <autoFilter ref="A1:E40" xr:uid="{B062C9D8-73C4-46EB-B059-DAA54D1E0B94}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
-    <sortCondition ref="A4294967288:A4294967295"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD04FE12-824F-4F35-84C0-D755E422C462}" name="Tabela2" displayName="Tabela2" ref="B2:F19" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9A45F353-9CFD-4C78-BD5A-066735C2EA01}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0252D482-772B-45B3-9870-374B93399D35}" name="Requisitos" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C0557B63-625D-42FF-BE9E-D8D8CCD9F3C6}" name="Tamanho" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BF5CA4B4-063A-4630-B5E5-1FC6866EC54C}" name="Ordem de Execução" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E8965E4E-B682-4858-A350-988D1ECD5701}" name="Sprint" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD04FE12-824F-4F35-84C0-D755E422C462}" name="Tabela2" displayName="Tabela2" ref="B2:F19" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7E8AE91F-6B94-4572-B2C8-99E2BD645D54}" name="ID" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7E8AE91F-6B94-4572-B2C8-99E2BD645D54}" name="ID" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{FC7518A0-1AD6-468E-992C-47CC3022333D}" name="Requisitos"/>
-    <tableColumn id="3" xr3:uid="{D6E45C21-4863-40C2-BCFC-0EC4BA16E0DE}" name="Tamanho" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{BB463502-3145-4DB6-B84E-42F29CC5AB92}" name="Ordem de Execução" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{20485B11-2A81-4338-AD53-E3131C57B67A}" name="Sprint" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{D6E45C21-4863-40C2-BCFC-0EC4BA16E0DE}" name="Tamanho" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BB463502-3145-4DB6-B84E-42F29CC5AB92}" name="Ordem de Execução" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{20485B11-2A81-4338-AD53-E3131C57B67A}" name="Sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1207,7 +1161,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,19 +1192,19 @@
       <c r="G1">
         <v>1</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="44" t="s">
+      <c r="L1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="42" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1270,19 +1224,19 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="K2" s="30">
-        <v>1</v>
-      </c>
-      <c r="L2" s="31" t="s">
+      <c r="K2" s="29">
+        <v>1</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="30">
         <v>21</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="30">
         <v>1</v>
       </c>
     </row>
@@ -1303,19 +1257,19 @@
         <f>G2+G1</f>
         <v>3</v>
       </c>
-      <c r="K3" s="32">
-        <v>2</v>
-      </c>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="31">
+        <v>2</v>
+      </c>
+      <c r="L3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="32">
         <v>16</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1336,19 +1290,19 @@
         <f>G3+G2</f>
         <v>5</v>
       </c>
-      <c r="K4" s="30">
-        <v>3</v>
-      </c>
-      <c r="L4" s="31" t="s">
+      <c r="K4" s="29">
+        <v>3</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="30">
         <v>18</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="30">
         <v>3</v>
       </c>
     </row>
@@ -1369,19 +1323,19 @@
         <f>G4+G3</f>
         <v>8</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <v>4</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="32">
         <v>21</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="32">
         <v>4</v>
       </c>
     </row>
@@ -1402,19 +1356,19 @@
         <f>G5+G4</f>
         <v>13</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>5</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="31">
-        <v>8</v>
-      </c>
-      <c r="O6" s="31">
+      <c r="N6" s="30">
+        <v>8</v>
+      </c>
+      <c r="O6" s="30">
         <v>5</v>
       </c>
     </row>
@@ -1435,19 +1389,19 @@
         <f>G6+G5</f>
         <v>21</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <v>6</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="32">
         <v>16</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="32">
         <v>6</v>
       </c>
     </row>
@@ -1464,70 +1418,70 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>7</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <v>21</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="30">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K9" s="32">
-        <v>8</v>
-      </c>
-      <c r="L9" s="33" t="s">
+      <c r="K9" s="31">
+        <v>8</v>
+      </c>
+      <c r="L9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="33">
-        <v>8</v>
-      </c>
-      <c r="O9" s="33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K10" s="30">
+      <c r="N9" s="32">
+        <v>8</v>
+      </c>
+      <c r="O9" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="29">
         <v>9</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="31" t="s">
+      <c r="L10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="30">
         <v>13</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="30">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <v>10</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="33">
-        <v>3</v>
-      </c>
-      <c r="O11" s="33">
+      <c r="N11" s="32">
+        <v>3</v>
+      </c>
+      <c r="O11" s="32">
         <v>10</v>
       </c>
     </row>
@@ -1543,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3685E5-F92C-42F0-8A9F-7AEF9F5411D3}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E49" sqref="A42:E49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E40" sqref="A1:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,680 +1515,680 @@
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
-        <v>1</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36">
+        <v>3</v>
+      </c>
+      <c r="E2" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="36">
+        <v>8</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="36">
+        <v>8</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="37">
-        <v>1</v>
-      </c>
-      <c r="D2" s="37">
-        <v>3</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38" t="s">
+      <c r="C5" s="36">
+        <v>5</v>
+      </c>
+      <c r="D5" s="36">
+        <v>4</v>
+      </c>
+      <c r="E5" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="37">
-        <v>8</v>
-      </c>
-      <c r="D3" s="37">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
-        <v>3</v>
-      </c>
-      <c r="B4" s="38" t="s">
+      <c r="C6" s="36">
+        <v>13</v>
+      </c>
+      <c r="D6" s="36">
+        <v>9</v>
+      </c>
+      <c r="E6" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="36">
+        <v>21</v>
+      </c>
+      <c r="D7" s="36">
+        <v>10</v>
+      </c>
+      <c r="E7" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="36">
+        <v>8</v>
+      </c>
+      <c r="D8" s="36">
+        <v>5</v>
+      </c>
+      <c r="E8" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="36">
+        <v>5</v>
+      </c>
+      <c r="D9" s="36">
+        <v>6</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="36">
+        <v>2</v>
+      </c>
+      <c r="D10" s="36">
+        <v>7</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="36">
+        <v>2</v>
+      </c>
+      <c r="D11" s="36">
+        <v>8</v>
+      </c>
+      <c r="E11" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="36">
+        <v>13</v>
+      </c>
+      <c r="D12" s="36">
+        <v>12</v>
+      </c>
+      <c r="E12" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="36">
+        <v>5</v>
+      </c>
+      <c r="D13" s="36">
+        <v>11</v>
+      </c>
+      <c r="E13" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="36">
+        <v>3</v>
+      </c>
+      <c r="D15" s="36">
+        <v>2</v>
+      </c>
+      <c r="E15" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="36">
+        <v>21</v>
+      </c>
+      <c r="D16" s="36">
+        <v>7</v>
+      </c>
+      <c r="E16" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="36">
+        <v>21</v>
+      </c>
+      <c r="D17" s="36">
+        <v>9</v>
+      </c>
+      <c r="E17" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
+        <v>16</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="36">
+        <v>13</v>
+      </c>
+      <c r="D18" s="36">
+        <v>8</v>
+      </c>
+      <c r="E18" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>17</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="36">
+        <v>3</v>
+      </c>
+      <c r="D19" s="36">
+        <v>1</v>
+      </c>
+      <c r="E19" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <v>18</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="36">
+        <v>13</v>
+      </c>
+      <c r="D20" s="36">
+        <v>4</v>
+      </c>
+      <c r="E20" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
+        <v>19</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="36">
+        <v>5</v>
+      </c>
+      <c r="D21" s="36">
+        <v>3</v>
+      </c>
+      <c r="E21" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
+        <v>20</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="36">
+        <v>8</v>
+      </c>
+      <c r="D22" s="36">
+        <v>5</v>
+      </c>
+      <c r="E22" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
+        <v>21</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="36">
+        <v>5</v>
+      </c>
+      <c r="D23" s="36">
+        <v>6</v>
+      </c>
+      <c r="E23" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="36">
+        <v>22</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="36">
+        <v>13</v>
+      </c>
+      <c r="D24" s="36">
+        <v>11</v>
+      </c>
+      <c r="E24" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="36">
+        <v>23</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="36">
+        <v>8</v>
+      </c>
+      <c r="D25" s="36">
+        <v>10</v>
+      </c>
+      <c r="E25" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
+        <v>24</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="36">
+        <v>3</v>
+      </c>
+      <c r="D27" s="36">
+        <v>12</v>
+      </c>
+      <c r="E27" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="36">
+        <v>25</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="36">
+        <v>13</v>
+      </c>
+      <c r="D28" s="36">
+        <v>13</v>
+      </c>
+      <c r="E28" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="36">
+        <v>26</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="36">
+        <v>8</v>
+      </c>
+      <c r="D29" s="36">
+        <v>14</v>
+      </c>
+      <c r="E29" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="36">
+        <v>27</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="36">
+        <v>8</v>
+      </c>
+      <c r="D30" s="36">
+        <v>11</v>
+      </c>
+      <c r="E30" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
+        <v>28</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="36">
+        <v>21</v>
+      </c>
+      <c r="D31" s="36">
+        <v>8</v>
+      </c>
+      <c r="E31" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="36">
+        <v>29</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="36">
+        <v>21</v>
+      </c>
+      <c r="D32" s="36">
+        <v>6</v>
+      </c>
+      <c r="E32" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="36">
+        <v>30</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="36">
+        <v>8</v>
+      </c>
+      <c r="D33" s="36">
+        <v>7</v>
+      </c>
+      <c r="E33" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="36">
+        <v>31</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="36">
+        <v>13</v>
+      </c>
+      <c r="D34" s="36">
+        <v>4</v>
+      </c>
+      <c r="E34" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="36">
+        <v>32</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="36">
+        <v>5</v>
+      </c>
+      <c r="D35" s="36">
+        <v>5</v>
+      </c>
+      <c r="E35" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="36">
+        <v>8</v>
+      </c>
+      <c r="D36" s="36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="36">
+        <v>34</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="36">
+        <v>3</v>
+      </c>
+      <c r="D37" s="36">
+        <v>3</v>
+      </c>
+      <c r="E37" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="36">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="36">
+        <v>3</v>
+      </c>
+      <c r="D38" s="36">
+        <v>2</v>
+      </c>
+      <c r="E38" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="36">
         <v>36</v>
       </c>
-      <c r="C4" s="37">
-        <v>8</v>
-      </c>
-      <c r="D4" s="37">
-        <v>1</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
-        <v>4</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="37">
-        <v>5</v>
-      </c>
-      <c r="D5" s="37">
-        <v>4</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <v>5</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="37">
+      <c r="B39" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="36">
+        <v>8</v>
+      </c>
+      <c r="D39" s="36">
+        <v>9</v>
+      </c>
+      <c r="E39" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="36">
+        <v>37</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="36">
         <v>13</v>
       </c>
-      <c r="D6" s="37">
-        <v>9</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
-        <v>6</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="37">
-        <v>21</v>
-      </c>
-      <c r="D7" s="37">
+      <c r="D40" s="36">
         <v>10</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
-        <v>7</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="37">
-        <v>8</v>
-      </c>
-      <c r="D8" s="37">
-        <v>5</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="37">
-        <v>5</v>
-      </c>
-      <c r="D9" s="37">
-        <v>6</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
-        <v>9</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="37">
-        <v>2</v>
-      </c>
-      <c r="D10" s="37">
-        <v>7</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
-        <v>10</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="37">
-        <v>2</v>
-      </c>
-      <c r="D11" s="37">
-        <v>8</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
-        <v>11</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="37">
-        <v>13</v>
-      </c>
-      <c r="D12" s="37">
-        <v>12</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
-        <v>12</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="37">
-        <v>5</v>
-      </c>
-      <c r="D13" s="37">
-        <v>11</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
-        <v>13</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="37">
-        <v>3</v>
-      </c>
-      <c r="D15" s="37">
-        <v>2</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
-        <v>14</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="37">
-        <v>21</v>
-      </c>
-      <c r="D16" s="37">
-        <v>7</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
-        <v>15</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="37">
-        <v>21</v>
-      </c>
-      <c r="D17" s="37">
-        <v>9</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
-        <v>16</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="37">
-        <v>13</v>
-      </c>
-      <c r="D18" s="37">
-        <v>8</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
-        <v>17</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="37">
-        <v>3</v>
-      </c>
-      <c r="D19" s="37">
-        <v>1</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
-        <v>18</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="37">
-        <v>13</v>
-      </c>
-      <c r="D20" s="37">
-        <v>4</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
-        <v>19</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="37">
-        <v>5</v>
-      </c>
-      <c r="D21" s="37">
-        <v>3</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
-        <v>20</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="37">
-        <v>8</v>
-      </c>
-      <c r="D22" s="37">
-        <v>5</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
-        <v>21</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="37">
-        <v>5</v>
-      </c>
-      <c r="D23" s="37">
-        <v>6</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
-        <v>22</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="37">
-        <v>13</v>
-      </c>
-      <c r="D24" s="37">
-        <v>11</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
-        <v>23</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="37">
-        <v>8</v>
-      </c>
-      <c r="D25" s="37">
-        <v>10</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
-        <v>24</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="37">
-        <v>3</v>
-      </c>
-      <c r="D27" s="37">
-        <v>12</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
-        <v>25</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="37">
-        <v>13</v>
-      </c>
-      <c r="D28" s="37">
-        <v>13</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
-        <v>26</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="37">
-        <v>8</v>
-      </c>
-      <c r="D29" s="37">
-        <v>14</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
-        <v>27</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="37">
-        <v>8</v>
-      </c>
-      <c r="D30" s="37">
-        <v>11</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
-        <v>28</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="37">
-        <v>21</v>
-      </c>
-      <c r="D31" s="37">
-        <v>8</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
-        <v>29</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="37">
-        <v>21</v>
-      </c>
-      <c r="D32" s="37">
-        <v>6</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
-        <v>30</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="37">
-        <v>8</v>
-      </c>
-      <c r="D33" s="37">
-        <v>7</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
-        <v>31</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="37">
-        <v>13</v>
-      </c>
-      <c r="D34" s="37">
-        <v>4</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
-        <v>32</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="37">
-        <v>5</v>
-      </c>
-      <c r="D35" s="37">
-        <v>5</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="37">
-        <v>33</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="37">
-        <v>8</v>
-      </c>
-      <c r="D36" s="37">
-        <v>1</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
-        <v>34</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="37">
-        <v>3</v>
-      </c>
-      <c r="D37" s="37">
-        <v>3</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="37">
-        <v>35</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="37">
-        <v>3</v>
-      </c>
-      <c r="D38" s="37">
-        <v>2</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
-        <v>36</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="37">
-        <v>8</v>
-      </c>
-      <c r="D39" s="37">
-        <v>9</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
-        <v>37</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="37">
-        <v>13</v>
-      </c>
-      <c r="D40" s="37">
-        <v>10</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>57</v>
+      <c r="E40" s="44">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="35" t="s">
+      <c r="B42" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="34" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2251,7 +2205,7 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2268,7 +2222,7 @@
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2285,7 +2239,7 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="33" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2302,8 +2256,8 @@
       <c r="D46">
         <v>6</v>
       </c>
-      <c r="E46" s="34" t="s">
-        <v>57</v>
+      <c r="E46" s="45">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2319,8 +2273,8 @@
       <c r="D47">
         <v>7</v>
       </c>
-      <c r="E47" s="34" t="s">
-        <v>57</v>
+      <c r="E47" s="45">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,7 +2290,7 @@
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2353,15 +2307,14 @@
       <c r="D49">
         <v>2</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="33" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2370,9 +2323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFE211-9289-4CE5-BEDB-9EB311B8F419}">
   <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2388,10 +2339,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">

--- a/SPRINT2/Planilha Backlog.xlsx
+++ b/SPRINT2/Planilha Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 3/TECCHICKEN-DOCUMENTACAO/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7B5D4B23-C96A-4D4B-BAE2-38923F007648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:20001_{7B5D4B23-C96A-4D4B-BAE2-38923F007648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73AC7AA5-C933-4AEC-849D-A05BA815CA79}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Requisitos" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -647,13 +646,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,7 +1160,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="30">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O2" s="30">
         <v>1</v>
@@ -1267,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="32">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O3" s="32">
         <v>2</v>
@@ -1300,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="30">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O4" s="30">
         <v>3</v>
@@ -1366,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O6" s="30">
         <v>5</v>
@@ -1399,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="32">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O7" s="32">
         <v>6</v>
@@ -1428,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="N8" s="30">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O8" s="30">
         <v>7</v>
@@ -1445,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="N9" s="32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O9" s="32">
         <v>8</v>
@@ -1479,7 +1478,7 @@
         <v>12</v>
       </c>
       <c r="N11" s="32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" s="32">
         <v>10</v>
@@ -1545,7 +1544,7 @@
       <c r="D2" s="36">
         <v>3</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1562,7 +1561,7 @@
       <c r="D3" s="36">
         <v>2</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1579,7 +1578,7 @@
       <c r="D4" s="36">
         <v>1</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1596,7 +1595,7 @@
       <c r="D5" s="36">
         <v>4</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1613,7 +1612,7 @@
       <c r="D6" s="36">
         <v>9</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1630,7 +1629,7 @@
       <c r="D7" s="36">
         <v>10</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1647,7 +1646,7 @@
       <c r="D8" s="36">
         <v>5</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1664,7 +1663,7 @@
       <c r="D9" s="36">
         <v>6</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1681,7 +1680,7 @@
       <c r="D10" s="36">
         <v>7</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1698,7 +1697,7 @@
       <c r="D11" s="36">
         <v>8</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1715,7 +1714,7 @@
       <c r="D12" s="36">
         <v>12</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1732,7 +1731,7 @@
       <c r="D13" s="36">
         <v>11</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1756,7 +1755,7 @@
       <c r="D15" s="36">
         <v>2</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1773,7 +1772,7 @@
       <c r="D16" s="36">
         <v>7</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1790,7 +1789,7 @@
       <c r="D17" s="36">
         <v>9</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1807,7 +1806,7 @@
       <c r="D18" s="36">
         <v>8</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1824,7 +1823,7 @@
       <c r="D19" s="36">
         <v>1</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1841,7 +1840,7 @@
       <c r="D20" s="36">
         <v>4</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1858,7 +1857,7 @@
       <c r="D21" s="36">
         <v>3</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1875,7 +1874,7 @@
       <c r="D22" s="36">
         <v>5</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1892,7 +1891,7 @@
       <c r="D23" s="36">
         <v>6</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1909,7 +1908,7 @@
       <c r="D24" s="36">
         <v>11</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1926,7 +1925,7 @@
       <c r="D25" s="36">
         <v>10</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <v>2</v>
       </c>
     </row>
@@ -1950,7 +1949,7 @@
       <c r="D27" s="36">
         <v>12</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="43">
         <v>3</v>
       </c>
     </row>
@@ -1967,7 +1966,7 @@
       <c r="D28" s="36">
         <v>13</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="43">
         <v>3</v>
       </c>
     </row>
@@ -1984,7 +1983,7 @@
       <c r="D29" s="36">
         <v>14</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2001,7 +2000,7 @@
       <c r="D30" s="36">
         <v>11</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2018,7 +2017,7 @@
       <c r="D31" s="36">
         <v>8</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2035,7 +2034,7 @@
       <c r="D32" s="36">
         <v>6</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2052,7 +2051,7 @@
       <c r="D33" s="36">
         <v>7</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2069,7 +2068,7 @@
       <c r="D34" s="36">
         <v>4</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2086,7 +2085,7 @@
       <c r="D35" s="36">
         <v>5</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2103,7 +2102,7 @@
       <c r="D36" s="36">
         <v>1</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2120,7 +2119,7 @@
       <c r="D37" s="36">
         <v>3</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2137,7 +2136,7 @@
       <c r="D38" s="36">
         <v>2</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2154,7 +2153,7 @@
       <c r="D39" s="36">
         <v>9</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2171,7 +2170,7 @@
       <c r="D40" s="36">
         <v>10</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="43">
         <v>3</v>
       </c>
     </row>
@@ -2256,7 +2255,7 @@
       <c r="D46">
         <v>6</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="44">
         <v>3</v>
       </c>
     </row>
@@ -2273,7 +2272,7 @@
       <c r="D47">
         <v>7</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="44">
         <v>3</v>
       </c>
     </row>
@@ -2339,10 +2338,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
@@ -2749,9 +2748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1739E6-F50A-4DFF-AA31-A876B2C2E512}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
